--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Vtn-Plaur.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Vtn-Plaur.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -88,13 +88,13 @@
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Neutrophils</t>
+  </si>
+  <si>
     <t>Vtn</t>
   </si>
   <si>
     <t>Plaur</t>
-  </si>
-  <si>
-    <t>Neutrophils</t>
   </si>
   <si>
     <t>Resolving-Mac</t>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T25"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,10 +528,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>3.94917</v>
+        <v>9.080941333333334</v>
       </c>
       <c r="H2">
-        <v>11.84751</v>
+        <v>27.242824</v>
       </c>
       <c r="I2">
-        <v>0.1372790996046713</v>
+        <v>0.3647727776818407</v>
       </c>
       <c r="J2">
-        <v>0.1372790996046713</v>
+        <v>0.3647727776818407</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>6.278248333333334</v>
+        <v>30.531156</v>
       </c>
       <c r="N2">
-        <v>18.834745</v>
+        <v>91.593468</v>
       </c>
       <c r="O2">
-        <v>0.02606887289604513</v>
+        <v>0.1030293154626785</v>
       </c>
       <c r="P2">
-        <v>0.02606887289604514</v>
+        <v>0.1030293154626785</v>
       </c>
       <c r="Q2">
-        <v>24.79386997055</v>
+        <v>277.251636474848</v>
       </c>
       <c r="R2">
-        <v>223.14482973495</v>
+        <v>2495.264728273632</v>
       </c>
       <c r="S2">
-        <v>0.003578711398877696</v>
+        <v>0.03758228958397985</v>
       </c>
       <c r="T2">
-        <v>0.003578711398877697</v>
+        <v>0.03758228958397986</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,10 +590,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>3.94917</v>
+        <v>9.080941333333334</v>
       </c>
       <c r="H3">
-        <v>11.84751</v>
+        <v>27.242824</v>
       </c>
       <c r="I3">
-        <v>0.1372790996046713</v>
+        <v>0.3647727776818407</v>
       </c>
       <c r="J3">
-        <v>0.1372790996046713</v>
+        <v>0.3647727776818407</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>26.726477</v>
       </c>
       <c r="O3">
-        <v>0.03699169443876589</v>
+        <v>0.03006339524166746</v>
       </c>
       <c r="P3">
-        <v>0.03699169443876589</v>
+        <v>0.03006339524166747</v>
       </c>
       <c r="Q3">
-        <v>35.18246705803</v>
+        <v>80.90052322789423</v>
       </c>
       <c r="R3">
-        <v>316.64220352227</v>
+        <v>728.1047090510481</v>
       </c>
       <c r="S3">
-        <v>0.005078186505404908</v>
+        <v>0.01096630818885007</v>
       </c>
       <c r="T3">
-        <v>0.005078186505404908</v>
+        <v>0.01096630818885008</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,10 +652,10 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>3.94917</v>
+        <v>9.080941333333334</v>
       </c>
       <c r="H4">
-        <v>11.84751</v>
+        <v>27.242824</v>
       </c>
       <c r="I4">
-        <v>0.1372790996046713</v>
+        <v>0.3647727776818407</v>
       </c>
       <c r="J4">
-        <v>0.1372790996046713</v>
+        <v>0.3647727776818407</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>64.156346</v>
+        <v>95.73510733333332</v>
       </c>
       <c r="N4">
-        <v>192.469038</v>
+        <v>287.205322</v>
       </c>
       <c r="O4">
-        <v>0.2663933537749558</v>
+        <v>0.3230641700661247</v>
       </c>
       <c r="P4">
-        <v>0.2663933537749558</v>
+        <v>0.3230641700661248</v>
       </c>
       <c r="Q4">
-        <v>253.36431693282</v>
+        <v>869.3648932343697</v>
       </c>
       <c r="R4">
-        <v>2280.27885239538</v>
+        <v>7824.284039109328</v>
       </c>
       <c r="S4">
-        <v>0.0365702397468946</v>
+        <v>0.1178450146844989</v>
       </c>
       <c r="T4">
-        <v>0.0365702397468946</v>
+        <v>0.1178450146844989</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,10 +714,10 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
         <v>23</v>
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>3.94917</v>
+        <v>9.080941333333334</v>
       </c>
       <c r="H5">
-        <v>11.84751</v>
+        <v>27.242824</v>
       </c>
       <c r="I5">
-        <v>0.1372790996046713</v>
+        <v>0.3647727776818407</v>
       </c>
       <c r="J5">
-        <v>0.1372790996046713</v>
+        <v>0.3647727776818407</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>7.483737333333333</v>
+        <v>8.232281666666665</v>
       </c>
       <c r="N5">
-        <v>22.451212</v>
+        <v>24.696845</v>
       </c>
       <c r="O5">
-        <v>0.03107436771722491</v>
+        <v>0.02778035475671555</v>
       </c>
       <c r="P5">
-        <v>0.03107436771722491</v>
+        <v>0.02778035475671555</v>
       </c>
       <c r="Q5">
-        <v>29.55455096468</v>
+        <v>74.75686685447555</v>
       </c>
       <c r="R5">
-        <v>265.99095868212</v>
+        <v>672.8118016902799</v>
       </c>
       <c r="S5">
-        <v>0.004265861221005101</v>
+        <v>0.01013351716959407</v>
       </c>
       <c r="T5">
-        <v>0.004265861221005101</v>
+        <v>0.01013351716959407</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,14 +776,14 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>26</v>
-      </c>
       <c r="E6">
         <v>3</v>
       </c>
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>3.94917</v>
+        <v>9.080941333333334</v>
       </c>
       <c r="H6">
-        <v>11.84751</v>
+        <v>27.242824</v>
       </c>
       <c r="I6">
-        <v>0.1372790996046713</v>
+        <v>0.3647727776818407</v>
       </c>
       <c r="J6">
-        <v>0.1372790996046713</v>
+        <v>0.3647727776818407</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>93.12082700000001</v>
+        <v>120.0969113333333</v>
       </c>
       <c r="N6">
-        <v>279.362481</v>
+        <v>360.290734</v>
       </c>
       <c r="O6">
-        <v>0.386661194994295</v>
+        <v>0.4052746173074916</v>
       </c>
       <c r="P6">
-        <v>0.3866611949942951</v>
+        <v>0.4052746173074917</v>
       </c>
       <c r="Q6">
-        <v>367.74997636359</v>
+        <v>1090.593006132535</v>
       </c>
       <c r="R6">
-        <v>3309.74978727231</v>
+        <v>9815.337055192816</v>
       </c>
       <c r="S6">
-        <v>0.05308050070088306</v>
+        <v>0.1478331478791987</v>
       </c>
       <c r="T6">
-        <v>0.05308050070088306</v>
+        <v>0.1478331478791988</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,10 +838,10 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
         <v>27</v>
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>3.94917</v>
+        <v>9.080941333333334</v>
       </c>
       <c r="H7">
-        <v>11.84751</v>
+        <v>27.242824</v>
       </c>
       <c r="I7">
-        <v>0.1372790996046713</v>
+        <v>0.3647727776818407</v>
       </c>
       <c r="J7">
-        <v>0.1372790996046713</v>
+        <v>0.3647727776818407</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>60.88514866666667</v>
+        <v>32.83036666666667</v>
       </c>
       <c r="N7">
-        <v>182.655446</v>
+        <v>98.4911</v>
       </c>
       <c r="O7">
-        <v>0.2528105161787131</v>
+        <v>0.110788147165322</v>
       </c>
       <c r="P7">
-        <v>0.2528105161787131</v>
+        <v>0.110788147165322</v>
       </c>
       <c r="Q7">
-        <v>240.44580255994</v>
+        <v>298.1306336518223</v>
       </c>
       <c r="R7">
-        <v>2164.01222303946</v>
+        <v>2683.1757028664</v>
       </c>
       <c r="S7">
-        <v>0.03470560003160592</v>
+        <v>0.04041250017571906</v>
       </c>
       <c r="T7">
-        <v>0.03470560003160593</v>
+        <v>0.04041250017571907</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,10 +900,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
@@ -921,10 +921,10 @@
         <v>8.875596</v>
       </c>
       <c r="I8">
-        <v>0.1028430300826775</v>
+        <v>0.1188414169728452</v>
       </c>
       <c r="J8">
-        <v>0.1028430300826775</v>
+        <v>0.1188414169728452</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>6.278248333333334</v>
+        <v>30.531156</v>
       </c>
       <c r="N8">
-        <v>18.834745</v>
+        <v>91.593468</v>
       </c>
       <c r="O8">
-        <v>0.02606887289604513</v>
+        <v>0.1030293154626785</v>
       </c>
       <c r="P8">
-        <v>0.02606887289604514</v>
+        <v>0.1030293154626785</v>
       </c>
       <c r="Q8">
-        <v>18.57439859811333</v>
+        <v>90.32740202299199</v>
       </c>
       <c r="R8">
-        <v>167.16958738302</v>
+        <v>812.946618206928</v>
       </c>
       <c r="S8">
-        <v>0.002681001879469465</v>
+        <v>0.01224414983932698</v>
       </c>
       <c r="T8">
-        <v>0.002681001879469465</v>
+        <v>0.01224414983932698</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,10 +962,10 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
@@ -983,10 +983,10 @@
         <v>8.875596</v>
       </c>
       <c r="I9">
-        <v>0.1028430300826775</v>
+        <v>0.1188414169728452</v>
       </c>
       <c r="J9">
-        <v>0.1028430300826775</v>
+        <v>0.1188414169728452</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>26.726477</v>
       </c>
       <c r="O9">
-        <v>0.03699169443876589</v>
+        <v>0.03006339524166746</v>
       </c>
       <c r="P9">
-        <v>0.03699169443876589</v>
+        <v>0.03006339524166747</v>
       </c>
       <c r="Q9">
         <v>26.35704581725467</v>
@@ -1013,10 +1013,10 @@
         <v>237.213412355292</v>
       </c>
       <c r="S9">
-        <v>0.003804337943975213</v>
+        <v>0.003572776489534453</v>
       </c>
       <c r="T9">
-        <v>0.003804337943975213</v>
+        <v>0.003572776489534454</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,10 +1024,10 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
         <v>22</v>
@@ -1045,10 +1045,10 @@
         <v>8.875596</v>
       </c>
       <c r="I10">
-        <v>0.1028430300826775</v>
+        <v>0.1188414169728452</v>
       </c>
       <c r="J10">
-        <v>0.1028430300826775</v>
+        <v>0.1188414169728452</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>64.156346</v>
+        <v>95.73510733333332</v>
       </c>
       <c r="N10">
-        <v>192.469038</v>
+        <v>287.205322</v>
       </c>
       <c r="O10">
-        <v>0.2663933537749558</v>
+        <v>0.3230641700661247</v>
       </c>
       <c r="P10">
-        <v>0.2663933537749558</v>
+        <v>0.3230641700661248</v>
       </c>
       <c r="Q10">
-        <v>189.808602644072</v>
+        <v>283.2353785691013</v>
       </c>
       <c r="R10">
-        <v>1708.277423796648</v>
+        <v>2549.118407121912</v>
       </c>
       <c r="S10">
-        <v>0.02739669969610312</v>
+        <v>0.0383934037438145</v>
       </c>
       <c r="T10">
-        <v>0.02739669969610312</v>
+        <v>0.03839340374381451</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,10 +1086,10 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D11" t="s">
         <v>23</v>
@@ -1107,10 +1107,10 @@
         <v>8.875596</v>
       </c>
       <c r="I11">
-        <v>0.1028430300826775</v>
+        <v>0.1188414169728452</v>
       </c>
       <c r="J11">
-        <v>0.1028430300826775</v>
+        <v>0.1188414169728452</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>7.483737333333333</v>
+        <v>8.232281666666665</v>
       </c>
       <c r="N11">
-        <v>22.451212</v>
+        <v>24.696845</v>
       </c>
       <c r="O11">
-        <v>0.03107436771722491</v>
+        <v>0.02778035475671555</v>
       </c>
       <c r="P11">
-        <v>0.03107436771722491</v>
+        <v>0.02778035475671555</v>
       </c>
       <c r="Q11">
-        <v>22.14087638026133</v>
+        <v>24.35546874384666</v>
       </c>
       <c r="R11">
-        <v>199.267887422352</v>
+        <v>219.19921869462</v>
       </c>
       <c r="S11">
-        <v>0.003195782133942743</v>
+        <v>0.003301456723296396</v>
       </c>
       <c r="T11">
-        <v>0.003195782133942743</v>
+        <v>0.003301456723296397</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,13 +1148,13 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
         <v>24</v>
-      </c>
-      <c r="C12" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" t="s">
-        <v>26</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1169,10 +1169,10 @@
         <v>8.875596</v>
       </c>
       <c r="I12">
-        <v>0.1028430300826775</v>
+        <v>0.1188414169728452</v>
       </c>
       <c r="J12">
-        <v>0.1028430300826775</v>
+        <v>0.1188414169728452</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>93.12082700000001</v>
+        <v>120.0969113333333</v>
       </c>
       <c r="N12">
-        <v>279.362481</v>
+        <v>360.290734</v>
       </c>
       <c r="O12">
-        <v>0.386661194994295</v>
+        <v>0.4052746173074916</v>
       </c>
       <c r="P12">
-        <v>0.3866611949942951</v>
+        <v>0.4052746173074917</v>
       </c>
       <c r="Q12">
-        <v>275.500946545964</v>
+        <v>355.3105552808293</v>
       </c>
       <c r="R12">
-        <v>2479.508518913676</v>
+        <v>3197.794997527464</v>
       </c>
       <c r="S12">
-        <v>0.0397654089086023</v>
+        <v>0.04816340978394987</v>
       </c>
       <c r="T12">
-        <v>0.03976540890860231</v>
+        <v>0.0481634097839499</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,10 +1210,10 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
         <v>27</v>
@@ -1231,10 +1231,10 @@
         <v>8.875596</v>
       </c>
       <c r="I13">
-        <v>0.1028430300826775</v>
+        <v>0.1188414169728452</v>
       </c>
       <c r="J13">
-        <v>0.1028430300826775</v>
+        <v>0.1188414169728452</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>60.88514866666667</v>
+        <v>32.83036666666667</v>
       </c>
       <c r="N13">
-        <v>182.655446</v>
+        <v>98.4911</v>
       </c>
       <c r="O13">
-        <v>0.2528105161787131</v>
+        <v>0.110788147165322</v>
       </c>
       <c r="P13">
-        <v>0.2528105161787131</v>
+        <v>0.110788147165322</v>
       </c>
       <c r="Q13">
-        <v>180.1306606550907</v>
+        <v>97.12969035506667</v>
       </c>
       <c r="R13">
-        <v>1621.175945895816</v>
+        <v>874.1672131956</v>
       </c>
       <c r="S13">
-        <v>0.02599979952058461</v>
+        <v>0.01316622039292297</v>
       </c>
       <c r="T13">
-        <v>0.02599979952058461</v>
+        <v>0.01316622039292297</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,10 +1272,10 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
@@ -1287,16 +1287,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>0.06096333333333333</v>
+        <v>0.1011933333333333</v>
       </c>
       <c r="H14">
-        <v>0.18289</v>
+        <v>0.30358</v>
       </c>
       <c r="I14">
-        <v>0.002119177323057616</v>
+        <v>0.004064839968450158</v>
       </c>
       <c r="J14">
-        <v>0.002119177323057616</v>
+        <v>0.004064839968450158</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>6.278248333333334</v>
+        <v>30.531156</v>
       </c>
       <c r="N14">
-        <v>18.834745</v>
+        <v>91.593468</v>
       </c>
       <c r="O14">
-        <v>0.02606887289604513</v>
+        <v>0.1030293154626785</v>
       </c>
       <c r="P14">
-        <v>0.02606887289604514</v>
+        <v>0.1030293154626785</v>
       </c>
       <c r="Q14">
-        <v>0.3827429458944445</v>
+        <v>3.08954944616</v>
       </c>
       <c r="R14">
-        <v>3.44468651305</v>
+        <v>27.80594501544</v>
       </c>
       <c r="S14">
-        <v>5.524456427897016E-05</v>
+        <v>0.0004187976794147554</v>
       </c>
       <c r="T14">
-        <v>5.524456427897017E-05</v>
+        <v>0.0004187976794147555</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,10 +1334,10 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
@@ -1349,16 +1349,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>0.06096333333333333</v>
+        <v>0.1011933333333333</v>
       </c>
       <c r="H15">
-        <v>0.18289</v>
+        <v>0.30358</v>
       </c>
       <c r="I15">
-        <v>0.002119177323057616</v>
+        <v>0.004064839968450158</v>
       </c>
       <c r="J15">
-        <v>0.002119177323057616</v>
+        <v>0.004064839968450158</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>26.726477</v>
       </c>
       <c r="O15">
-        <v>0.03699169443876589</v>
+        <v>0.03006339524166746</v>
       </c>
       <c r="P15">
-        <v>0.03699169443876589</v>
+        <v>0.03006339524166747</v>
       </c>
       <c r="Q15">
-        <v>0.5431117087255556</v>
+        <v>0.9015137652955557</v>
       </c>
       <c r="R15">
-        <v>4.88800537853</v>
+        <v>8.113623887659999</v>
       </c>
       <c r="S15">
-        <v>7.839195999610919E-05</v>
+        <v>0.0001222028905656442</v>
       </c>
       <c r="T15">
-        <v>7.839195999610919E-05</v>
+        <v>0.0001222028905656442</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,10 +1396,10 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D16" t="s">
         <v>22</v>
@@ -1411,16 +1411,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>0.06096333333333333</v>
+        <v>0.1011933333333333</v>
       </c>
       <c r="H16">
-        <v>0.18289</v>
+        <v>0.30358</v>
       </c>
       <c r="I16">
-        <v>0.002119177323057616</v>
+        <v>0.004064839968450158</v>
       </c>
       <c r="J16">
-        <v>0.002119177323057616</v>
+        <v>0.004064839968450158</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>64.156346</v>
+        <v>95.73510733333332</v>
       </c>
       <c r="N16">
-        <v>192.469038</v>
+        <v>287.205322</v>
       </c>
       <c r="O16">
-        <v>0.2663933537749558</v>
+        <v>0.3230641700661247</v>
       </c>
       <c r="P16">
-        <v>0.2663933537749558</v>
+        <v>0.3230641700661248</v>
       </c>
       <c r="Q16">
-        <v>3.911184706646667</v>
+        <v>9.687754628084443</v>
       </c>
       <c r="R16">
-        <v>35.20066235981999</v>
+        <v>87.18979165275999</v>
       </c>
       <c r="S16">
-        <v>0.0005645347543331513</v>
+        <v>0.001313204150858963</v>
       </c>
       <c r="T16">
-        <v>0.0005645347543331513</v>
+        <v>0.001313204150858963</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,10 +1458,10 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D17" t="s">
         <v>23</v>
@@ -1473,16 +1473,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G17">
-        <v>0.06096333333333333</v>
+        <v>0.1011933333333333</v>
       </c>
       <c r="H17">
-        <v>0.18289</v>
+        <v>0.30358</v>
       </c>
       <c r="I17">
-        <v>0.002119177323057616</v>
+        <v>0.004064839968450158</v>
       </c>
       <c r="J17">
-        <v>0.002119177323057616</v>
+        <v>0.004064839968450158</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>7.483737333333333</v>
+        <v>8.232281666666665</v>
       </c>
       <c r="N17">
-        <v>22.451212</v>
+        <v>24.696845</v>
       </c>
       <c r="O17">
-        <v>0.03107436771722491</v>
+        <v>0.02778035475671555</v>
       </c>
       <c r="P17">
-        <v>0.03107436771722491</v>
+        <v>0.02778035475671555</v>
       </c>
       <c r="Q17">
-        <v>0.4562335736311111</v>
+        <v>0.8330520227888888</v>
       </c>
       <c r="R17">
-        <v>4.106102162679999</v>
+        <v>7.4974682051</v>
       </c>
       <c r="S17">
-        <v>6.585209539469666E-05</v>
+        <v>0.0001129226963528218</v>
       </c>
       <c r="T17">
-        <v>6.585209539469666E-05</v>
+        <v>0.0001129226963528219</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,13 +1520,13 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
         <v>24</v>
-      </c>
-      <c r="C18" t="s">
-        <v>25</v>
-      </c>
-      <c r="D18" t="s">
-        <v>26</v>
       </c>
       <c r="E18">
         <v>1</v>
@@ -1535,16 +1535,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G18">
-        <v>0.06096333333333333</v>
+        <v>0.1011933333333333</v>
       </c>
       <c r="H18">
-        <v>0.18289</v>
+        <v>0.30358</v>
       </c>
       <c r="I18">
-        <v>0.002119177323057616</v>
+        <v>0.004064839968450158</v>
       </c>
       <c r="J18">
-        <v>0.002119177323057616</v>
+        <v>0.004064839968450158</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>93.12082700000001</v>
+        <v>120.0969113333333</v>
       </c>
       <c r="N18">
-        <v>279.362481</v>
+        <v>360.290734</v>
       </c>
       <c r="O18">
-        <v>0.386661194994295</v>
+        <v>0.4052746173074916</v>
       </c>
       <c r="P18">
-        <v>0.3866611949942951</v>
+        <v>0.4052746173074917</v>
       </c>
       <c r="Q18">
-        <v>5.676956016676667</v>
+        <v>12.15300678085778</v>
       </c>
       <c r="R18">
-        <v>51.09260415009</v>
+        <v>109.37706102772</v>
       </c>
       <c r="S18">
-        <v>0.0008194036361382689</v>
+        <v>0.001647376462629834</v>
       </c>
       <c r="T18">
-        <v>0.000819403636138269</v>
+        <v>0.001647376462629834</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,10 +1582,10 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C19" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D19" t="s">
         <v>27</v>
@@ -1597,16 +1597,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G19">
-        <v>0.06096333333333333</v>
+        <v>0.1011933333333333</v>
       </c>
       <c r="H19">
-        <v>0.18289</v>
+        <v>0.30358</v>
       </c>
       <c r="I19">
-        <v>0.002119177323057616</v>
+        <v>0.004064839968450158</v>
       </c>
       <c r="J19">
-        <v>0.002119177323057616</v>
+        <v>0.004064839968450158</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>60.88514866666667</v>
+        <v>32.83036666666667</v>
       </c>
       <c r="N19">
-        <v>182.655446</v>
+        <v>98.4911</v>
       </c>
       <c r="O19">
-        <v>0.2528105161787131</v>
+        <v>0.110788147165322</v>
       </c>
       <c r="P19">
-        <v>0.2528105161787131</v>
+        <v>0.110788147165322</v>
       </c>
       <c r="Q19">
-        <v>3.711761613215556</v>
+        <v>3.322214237555556</v>
       </c>
       <c r="R19">
-        <v>33.40585451894</v>
+        <v>29.899928138</v>
       </c>
       <c r="S19">
-        <v>0.0005357503129164192</v>
+        <v>0.000450336088628139</v>
       </c>
       <c r="T19">
-        <v>0.0005357503129164193</v>
+        <v>0.0004503360886281391</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1644,10 +1644,10 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D20" t="s">
         <v>20</v>
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>21.79878733333333</v>
+        <v>12.559037</v>
       </c>
       <c r="H20">
-        <v>65.396362</v>
+        <v>37.677111</v>
       </c>
       <c r="I20">
-        <v>0.7577586929895936</v>
+        <v>0.5044845730566345</v>
       </c>
       <c r="J20">
-        <v>0.7577586929895936</v>
+        <v>0.5044845730566345</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>6.278248333333334</v>
+        <v>30.531156</v>
       </c>
       <c r="N20">
-        <v>18.834745</v>
+        <v>91.593468</v>
       </c>
       <c r="O20">
-        <v>0.02606887289604513</v>
+        <v>0.1030293154626785</v>
       </c>
       <c r="P20">
-        <v>0.02606887289604514</v>
+        <v>0.1030293154626785</v>
       </c>
       <c r="Q20">
-        <v>136.8582002441878</v>
+        <v>383.441917856772</v>
       </c>
       <c r="R20">
-        <v>1231.72380219769</v>
+        <v>3450.977260710948</v>
       </c>
       <c r="S20">
-        <v>0.019753915053419</v>
+        <v>0.05197670022350667</v>
       </c>
       <c r="T20">
-        <v>0.01975391505341901</v>
+        <v>0.05197670022350668</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1706,10 +1706,10 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C21" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D21" t="s">
         <v>21</v>
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>21.79878733333333</v>
+        <v>12.559037</v>
       </c>
       <c r="H21">
-        <v>65.396362</v>
+        <v>37.677111</v>
       </c>
       <c r="I21">
-        <v>0.7577586929895936</v>
+        <v>0.5044845730566345</v>
       </c>
       <c r="J21">
-        <v>0.7577586929895936</v>
+        <v>0.5044845730566345</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>26.726477</v>
       </c>
       <c r="O21">
-        <v>0.03699169443876589</v>
+        <v>0.03006339524166746</v>
       </c>
       <c r="P21">
-        <v>0.03699169443876589</v>
+        <v>0.03006339524166747</v>
       </c>
       <c r="Q21">
-        <v>194.2015960974082</v>
+        <v>111.8862711742163</v>
       </c>
       <c r="R21">
-        <v>1747.814364876674</v>
+        <v>1006.976440567947</v>
       </c>
       <c r="S21">
-        <v>0.02803077802938966</v>
+        <v>0.01516651911312547</v>
       </c>
       <c r="T21">
-        <v>0.02803077802938966</v>
+        <v>0.01516651911312547</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1768,10 +1768,10 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C22" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D22" t="s">
         <v>22</v>
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>21.79878733333333</v>
+        <v>12.559037</v>
       </c>
       <c r="H22">
-        <v>65.396362</v>
+        <v>37.677111</v>
       </c>
       <c r="I22">
-        <v>0.7577586929895936</v>
+        <v>0.5044845730566345</v>
       </c>
       <c r="J22">
-        <v>0.7577586929895936</v>
+        <v>0.5044845730566345</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>64.156346</v>
+        <v>95.73510733333332</v>
       </c>
       <c r="N22">
-        <v>192.469038</v>
+        <v>287.205322</v>
       </c>
       <c r="O22">
-        <v>0.2663933537749558</v>
+        <v>0.3230641700661247</v>
       </c>
       <c r="P22">
-        <v>0.2663933537749558</v>
+        <v>0.3230641700661248</v>
       </c>
       <c r="Q22">
-        <v>1398.530542537751</v>
+        <v>1202.340755198305</v>
       </c>
       <c r="R22">
-        <v>12586.77488283975</v>
+        <v>10821.06679678474</v>
       </c>
       <c r="S22">
-        <v>0.2018618795776249</v>
+        <v>0.1629808899057049</v>
       </c>
       <c r="T22">
-        <v>0.2018618795776249</v>
+        <v>0.1629808899057049</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1830,10 +1830,10 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C23" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D23" t="s">
         <v>23</v>
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>21.79878733333333</v>
+        <v>12.559037</v>
       </c>
       <c r="H23">
-        <v>65.396362</v>
+        <v>37.677111</v>
       </c>
       <c r="I23">
-        <v>0.7577586929895936</v>
+        <v>0.5044845730566345</v>
       </c>
       <c r="J23">
-        <v>0.7577586929895936</v>
+        <v>0.5044845730566345</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>7.483737333333333</v>
+        <v>8.232281666666665</v>
       </c>
       <c r="N23">
-        <v>22.451212</v>
+        <v>24.696845</v>
       </c>
       <c r="O23">
-        <v>0.03107436771722491</v>
+        <v>0.02778035475671555</v>
       </c>
       <c r="P23">
-        <v>0.03107436771722491</v>
+        <v>0.02778035475671555</v>
       </c>
       <c r="Q23">
-        <v>163.1363985878604</v>
+        <v>103.3895300460883</v>
       </c>
       <c r="R23">
-        <v>1468.227587290744</v>
+        <v>930.5057704147949</v>
       </c>
       <c r="S23">
-        <v>0.02354687226688237</v>
+        <v>0.01401476040880349</v>
       </c>
       <c r="T23">
-        <v>0.02354687226688237</v>
+        <v>0.01401476040880349</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1892,14 +1892,14 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
         <v>24</v>
       </c>
-      <c r="C24" t="s">
-        <v>25</v>
-      </c>
-      <c r="D24" t="s">
-        <v>26</v>
-      </c>
       <c r="E24">
         <v>3</v>
       </c>
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>21.79878733333333</v>
+        <v>12.559037</v>
       </c>
       <c r="H24">
-        <v>65.396362</v>
+        <v>37.677111</v>
       </c>
       <c r="I24">
-        <v>0.7577586929895936</v>
+        <v>0.5044845730566345</v>
       </c>
       <c r="J24">
-        <v>0.7577586929895936</v>
+        <v>0.5044845730566345</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>93.12082700000001</v>
+        <v>120.0969113333333</v>
       </c>
       <c r="N24">
-        <v>279.362481</v>
+        <v>360.290734</v>
       </c>
       <c r="O24">
-        <v>0.386661194994295</v>
+        <v>0.4052746173074916</v>
       </c>
       <c r="P24">
-        <v>0.3866611949942951</v>
+        <v>0.4052746173074917</v>
       </c>
       <c r="Q24">
-        <v>2029.921104077125</v>
+        <v>1508.301553021053</v>
       </c>
       <c r="R24">
-        <v>18269.28993669412</v>
+        <v>13574.71397718947</v>
       </c>
       <c r="S24">
-        <v>0.2929958817486714</v>
+        <v>0.2044547922830609</v>
       </c>
       <c r="T24">
-        <v>0.2929958817486715</v>
+        <v>0.2044547922830609</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1954,10 +1954,10 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C25" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D25" t="s">
         <v>27</v>
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>21.79878733333333</v>
+        <v>12.559037</v>
       </c>
       <c r="H25">
-        <v>65.396362</v>
+        <v>37.677111</v>
       </c>
       <c r="I25">
-        <v>0.7577586929895936</v>
+        <v>0.5044845730566345</v>
       </c>
       <c r="J25">
-        <v>0.7577586929895936</v>
+        <v>0.5044845730566345</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,400 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>60.88514866666667</v>
+        <v>32.83036666666667</v>
       </c>
       <c r="N25">
-        <v>182.655446</v>
+        <v>98.4911</v>
       </c>
       <c r="O25">
-        <v>0.2528105161787131</v>
+        <v>0.110788147165322</v>
       </c>
       <c r="P25">
-        <v>0.2528105161787131</v>
+        <v>0.110788147165322</v>
       </c>
       <c r="Q25">
-        <v>1327.22240754305</v>
+        <v>412.3177896902334</v>
       </c>
       <c r="R25">
-        <v>11945.00166788745</v>
+        <v>3710.860107212101</v>
       </c>
       <c r="S25">
-        <v>0.1915693663136061</v>
+        <v>0.05589091112243308</v>
       </c>
       <c r="T25">
-        <v>0.1915693663136062</v>
+        <v>0.05589091112243308</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G26">
+        <v>0.1950853333333333</v>
+      </c>
+      <c r="H26">
+        <v>0.585256</v>
+      </c>
+      <c r="I26">
+        <v>0.007836392320229479</v>
+      </c>
+      <c r="J26">
+        <v>0.007836392320229481</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>30.531156</v>
+      </c>
+      <c r="N26">
+        <v>91.593468</v>
+      </c>
+      <c r="O26">
+        <v>0.1030293154626785</v>
+      </c>
+      <c r="P26">
+        <v>0.1030293154626785</v>
+      </c>
+      <c r="Q26">
+        <v>5.956180745311999</v>
+      </c>
+      <c r="R26">
+        <v>53.605626707808</v>
+      </c>
+      <c r="S26">
+        <v>0.000807378136450234</v>
+      </c>
+      <c r="T26">
+        <v>0.0008073781364502343</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27" t="s">
+        <v>26</v>
+      </c>
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
+      <c r="F27">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G27">
+        <v>0.1950853333333333</v>
+      </c>
+      <c r="H27">
+        <v>0.585256</v>
+      </c>
+      <c r="I27">
+        <v>0.007836392320229479</v>
+      </c>
+      <c r="J27">
+        <v>0.007836392320229481</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>8.908825666666667</v>
+      </c>
+      <c r="N27">
+        <v>26.726477</v>
+      </c>
+      <c r="O27">
+        <v>0.03006339524166746</v>
+      </c>
+      <c r="P27">
+        <v>0.03006339524166747</v>
+      </c>
+      <c r="Q27">
+        <v>1.737981224790222</v>
+      </c>
+      <c r="R27">
+        <v>15.641831023112</v>
+      </c>
+      <c r="S27">
+        <v>0.0002355885595918264</v>
+      </c>
+      <c r="T27">
+        <v>0.0002355885595918265</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>25</v>
+      </c>
+      <c r="C28" t="s">
+        <v>26</v>
+      </c>
+      <c r="D28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28">
+        <v>1</v>
+      </c>
+      <c r="F28">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G28">
+        <v>0.1950853333333333</v>
+      </c>
+      <c r="H28">
+        <v>0.585256</v>
+      </c>
+      <c r="I28">
+        <v>0.007836392320229479</v>
+      </c>
+      <c r="J28">
+        <v>0.007836392320229481</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>95.73510733333332</v>
+      </c>
+      <c r="N28">
+        <v>287.205322</v>
+      </c>
+      <c r="O28">
+        <v>0.3230641700661247</v>
+      </c>
+      <c r="P28">
+        <v>0.3230641700661248</v>
+      </c>
+      <c r="Q28">
+        <v>18.67651532582578</v>
+      </c>
+      <c r="R28">
+        <v>168.088637932432</v>
+      </c>
+      <c r="S28">
+        <v>0.00253165758124749</v>
+      </c>
+      <c r="T28">
+        <v>0.002531657581247491</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>25</v>
+      </c>
+      <c r="C29" t="s">
+        <v>26</v>
+      </c>
+      <c r="D29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29">
+        <v>1</v>
+      </c>
+      <c r="F29">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G29">
+        <v>0.1950853333333333</v>
+      </c>
+      <c r="H29">
+        <v>0.585256</v>
+      </c>
+      <c r="I29">
+        <v>0.007836392320229479</v>
+      </c>
+      <c r="J29">
+        <v>0.007836392320229481</v>
+      </c>
+      <c r="K29">
+        <v>3</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>8.232281666666665</v>
+      </c>
+      <c r="N29">
+        <v>24.696845</v>
+      </c>
+      <c r="O29">
+        <v>0.02778035475671555</v>
+      </c>
+      <c r="P29">
+        <v>0.02778035475671555</v>
+      </c>
+      <c r="Q29">
+        <v>1.605997413035555</v>
+      </c>
+      <c r="R29">
+        <v>14.45397671732</v>
+      </c>
+      <c r="S29">
+        <v>0.0002176977586687762</v>
+      </c>
+      <c r="T29">
+        <v>0.0002176977586687763</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>25</v>
+      </c>
+      <c r="C30" t="s">
+        <v>26</v>
+      </c>
+      <c r="D30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30">
+        <v>1</v>
+      </c>
+      <c r="F30">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G30">
+        <v>0.1950853333333333</v>
+      </c>
+      <c r="H30">
+        <v>0.585256</v>
+      </c>
+      <c r="I30">
+        <v>0.007836392320229479</v>
+      </c>
+      <c r="J30">
+        <v>0.007836392320229481</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>120.0969113333333</v>
+      </c>
+      <c r="N30">
+        <v>360.290734</v>
+      </c>
+      <c r="O30">
+        <v>0.4052746173074916</v>
+      </c>
+      <c r="P30">
+        <v>0.4052746173074917</v>
+      </c>
+      <c r="Q30">
+        <v>23.42914597976711</v>
+      </c>
+      <c r="R30">
+        <v>210.862313817904</v>
+      </c>
+      <c r="S30">
+        <v>0.003175890898652369</v>
+      </c>
+      <c r="T30">
+        <v>0.00317589089865237</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>25</v>
+      </c>
+      <c r="C31" t="s">
+        <v>26</v>
+      </c>
+      <c r="D31" t="s">
+        <v>27</v>
+      </c>
+      <c r="E31">
+        <v>1</v>
+      </c>
+      <c r="F31">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G31">
+        <v>0.1950853333333333</v>
+      </c>
+      <c r="H31">
+        <v>0.585256</v>
+      </c>
+      <c r="I31">
+        <v>0.007836392320229479</v>
+      </c>
+      <c r="J31">
+        <v>0.007836392320229481</v>
+      </c>
+      <c r="K31">
+        <v>3</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>32.83036666666667</v>
+      </c>
+      <c r="N31">
+        <v>98.4911</v>
+      </c>
+      <c r="O31">
+        <v>0.110788147165322</v>
+      </c>
+      <c r="P31">
+        <v>0.110788147165322</v>
+      </c>
+      <c r="Q31">
+        <v>6.404723024622223</v>
+      </c>
+      <c r="R31">
+        <v>57.6425072216</v>
+      </c>
+      <c r="S31">
+        <v>0.000868179385618783</v>
+      </c>
+      <c r="T31">
+        <v>0.0008681793856187832</v>
       </c>
     </row>
   </sheetData>
